--- a/biology/Médecine/Johannes_Theodorus_van_der_Kemp/Johannes_Theodorus_van_der_Kemp.xlsx
+++ b/biology/Médecine/Johannes_Theodorus_van_der_Kemp/Johannes_Theodorus_van_der_Kemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Theodorus van der Kemp (Rotterdam, 17 mai 1747-Le Cap, 15 décembre 1811) est un missionnaire, médecin et explorateur néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille de pasteurs, il étudie la philosophie et la médecine à l'Université de Leyde dont il est diplômé en 1763. Il s'engage ensuite dans l'armée où il sert de 1766 à 1781.
 Établi médecin à Middelbourg puis près de Dordrecht, après la mort accidentelle par noyade de son épouse et de sa fille le 27 juin 1791, il décide d'entrer en 1797 dans la London Missionary Society.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tentamen theologiae dunatoscopicae, 1775
 Parmenides, 1781
@@ -580,7 +596,9 @@
           <t>En littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le sujet d'un livre de Sarah Millin, The Burning Man et d'un roman d'André Brink, Praying Mantis.
 </t>
